--- a/Data processing/Meta_lo_es.xlsx
+++ b/Data processing/Meta_lo_es.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cover crop</t>
+          <t>Plant refuge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cover crop</t>
+          <t>Plant refuge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cover crop</t>
+          <t>Plant refuge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wallaby</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Kangaroo, goat, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fencing</t>
+          <t>Other fencing</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -12014,7 +12014,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Coypu</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -16162,7 +16162,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -16470,7 +16470,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Nursery treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -16942,7 +16942,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Wallaby, kangaroo, deer, rabbit</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -18010,7 +18010,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -18626,7 +18626,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -18934,7 +18934,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Repellent (absorption)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -18944,7 +18944,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -19242,7 +19242,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -19319,7 +19319,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Repellent (hanging)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -19473,7 +19473,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -19560,7 +19560,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -19704,7 +19704,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -19714,7 +19714,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Rabbits</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -19868,7 +19868,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -19945,7 +19945,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -20012,7 +20012,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -20089,7 +20089,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -20166,7 +20166,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -20253,7 +20253,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -20320,7 +20320,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -20397,7 +20397,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -20407,7 +20407,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -20474,7 +20474,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -20484,7 +20484,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -20715,7 +20715,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -20859,7 +20859,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -20869,7 +20869,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -21100,7 +21100,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -21254,7 +21254,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -21321,7 +21321,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -21331,7 +21331,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -21639,7 +21639,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -21783,7 +21783,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -21860,7 +21860,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -21937,7 +21937,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -22014,7 +22014,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -22101,7 +22101,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -22245,7 +22245,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -22255,7 +22255,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -22322,7 +22322,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -22332,7 +22332,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -22486,7 +22486,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -22630,7 +22630,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -22640,7 +22640,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -22707,7 +22707,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -22717,7 +22717,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -22784,7 +22784,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -22794,7 +22794,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -22871,7 +22871,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -22938,7 +22938,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Repellent (on ground)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -23025,7 +23025,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -23092,7 +23092,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -23169,7 +23169,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -23323,7 +23323,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -23554,7 +23554,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -23631,7 +23631,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -23708,7 +23708,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -23785,7 +23785,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -23862,7 +23862,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -24093,7 +24093,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -24180,7 +24180,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -24247,7 +24247,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -24257,7 +24257,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -24324,7 +24324,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -24334,7 +24334,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -24411,7 +24411,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -24478,7 +24478,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Beaver, rabbit, deer</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -24632,7 +24632,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -24786,7 +24786,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -24940,7 +24940,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -25094,7 +25094,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -25402,7 +25402,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -25710,7 +25710,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -25864,7 +25864,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -25941,7 +25941,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -26172,7 +26172,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -26326,7 +26326,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -26480,7 +26480,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -26634,7 +26634,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -27019,7 +27019,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -27096,7 +27096,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -27327,7 +27327,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -27404,7 +27404,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -27481,7 +27481,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -27558,7 +27558,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -27712,7 +27712,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -27789,7 +27789,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -27866,7 +27866,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -27943,7 +27943,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -28020,7 +28020,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -28251,7 +28251,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -28405,7 +28405,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -28482,7 +28482,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -28713,7 +28713,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -28790,7 +28790,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -28867,7 +28867,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -28944,7 +28944,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -29329,7 +29329,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -29406,7 +29406,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -29560,7 +29560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -29637,7 +29637,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -29868,7 +29868,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -30022,7 +30022,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -30099,7 +30099,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -30176,7 +30176,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -30253,7 +30253,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -30330,7 +30330,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -30407,7 +30407,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -30561,7 +30561,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -30638,7 +30638,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -30715,7 +30715,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -30792,7 +30792,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -30946,7 +30946,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -31023,7 +31023,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -31100,7 +31100,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -31562,7 +31562,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -31639,7 +31639,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -31649,7 +31649,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -31716,7 +31716,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -31726,7 +31726,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -31870,7 +31870,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -31880,7 +31880,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -31947,7 +31947,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -31957,7 +31957,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -32024,7 +32024,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -32034,7 +32034,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -32111,7 +32111,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -32178,7 +32178,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -32188,7 +32188,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -32265,7 +32265,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -32332,7 +32332,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -32342,7 +32342,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -32409,7 +32409,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -32419,7 +32419,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -32496,7 +32496,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -32563,7 +32563,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -32573,7 +32573,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -32640,7 +32640,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -32717,7 +32717,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -32727,7 +32727,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -32794,7 +32794,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -32804,7 +32804,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -32871,7 +32871,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -32881,7 +32881,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -32948,7 +32948,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -32958,7 +32958,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -33025,7 +33025,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -33035,7 +33035,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -33102,7 +33102,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -33112,7 +33112,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -33179,7 +33179,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -33189,7 +33189,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -33256,7 +33256,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -33333,7 +33333,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -33410,7 +33410,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -33487,7 +33487,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -33564,7 +33564,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -33718,7 +33718,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -33795,7 +33795,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -33872,7 +33872,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -33949,7 +33949,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -34026,7 +34026,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -34257,7 +34257,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -34267,7 +34267,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -34334,7 +34334,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -34344,7 +34344,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -34421,7 +34421,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -34488,7 +34488,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -34498,7 +34498,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -34565,7 +34565,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -34642,7 +34642,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -34652,7 +34652,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -34719,7 +34719,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -34729,7 +34729,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -34796,7 +34796,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -34806,7 +34806,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -34873,7 +34873,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -34883,7 +34883,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -34950,7 +34950,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -34960,7 +34960,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -35037,7 +35037,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -35104,7 +35104,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -35114,7 +35114,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -35181,7 +35181,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -35191,7 +35191,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -35258,7 +35258,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -35268,7 +35268,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -35335,7 +35335,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -35345,7 +35345,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -35412,7 +35412,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -35422,7 +35422,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -35489,7 +35489,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -35499,7 +35499,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -35566,7 +35566,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -35576,7 +35576,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -35643,7 +35643,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -35653,7 +35653,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -35730,7 +35730,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -35797,7 +35797,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -35807,7 +35807,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -35874,7 +35874,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -35884,7 +35884,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -35951,7 +35951,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -35961,7 +35961,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -36028,7 +36028,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -36105,7 +36105,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -36115,7 +36115,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -36182,7 +36182,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -36192,7 +36192,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -36259,7 +36259,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -36269,7 +36269,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -36336,7 +36336,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -36346,7 +36346,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -36423,7 +36423,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -36490,7 +36490,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -36500,7 +36500,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -36567,7 +36567,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -36577,7 +36577,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -36644,7 +36644,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -36654,7 +36654,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -36721,7 +36721,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -36731,7 +36731,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -36798,7 +36798,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -36808,7 +36808,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -36875,7 +36875,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -36885,7 +36885,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -36952,7 +36952,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -36962,7 +36962,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -37029,7 +37029,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -37039,7 +37039,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -37106,7 +37106,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -37116,7 +37116,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -37183,7 +37183,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -37193,7 +37193,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -37260,7 +37260,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -37270,7 +37270,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -37347,7 +37347,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -37414,7 +37414,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -37424,7 +37424,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -37491,7 +37491,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -37501,7 +37501,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -37568,7 +37568,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -37578,7 +37578,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -37645,7 +37645,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -37722,7 +37722,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -37732,7 +37732,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -37809,7 +37809,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -37876,7 +37876,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -37886,7 +37886,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -37953,7 +37953,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -37963,7 +37963,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -38030,7 +38030,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -38040,7 +38040,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -38107,7 +38107,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -38117,7 +38117,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -38184,7 +38184,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -38194,7 +38194,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -38261,7 +38261,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -38271,7 +38271,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -38338,7 +38338,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -38348,7 +38348,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -38415,7 +38415,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -38425,7 +38425,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -38492,7 +38492,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -38502,7 +38502,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -38569,7 +38569,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -38579,7 +38579,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -38646,7 +38646,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -38656,7 +38656,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -38733,7 +38733,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -38800,7 +38800,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -38810,7 +38810,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -38887,7 +38887,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -38954,7 +38954,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -38964,7 +38964,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -39031,7 +39031,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -39041,7 +39041,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -39108,7 +39108,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -39118,7 +39118,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -39185,7 +39185,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -39195,7 +39195,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -39262,7 +39262,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -39272,7 +39272,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Hares</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -39339,7 +39339,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -39349,7 +39349,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -39416,7 +39416,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -39493,7 +39493,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -39503,7 +39503,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -39580,7 +39580,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -39647,7 +39647,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -39657,7 +39657,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -39724,7 +39724,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -39734,7 +39734,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -39801,7 +39801,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -39811,7 +39811,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -39878,7 +39878,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -39888,7 +39888,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -39965,7 +39965,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -40032,7 +40032,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -40042,7 +40042,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -40119,7 +40119,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -40186,7 +40186,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -40196,7 +40196,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -40263,7 +40263,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -40273,7 +40273,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -40340,7 +40340,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -40350,7 +40350,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -40417,7 +40417,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -40427,7 +40427,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -40494,7 +40494,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -40504,7 +40504,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -40581,7 +40581,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -40648,7 +40648,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Repellent (on-browse)</t>
+          <t>Repellents</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -40658,7 +40658,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Goats</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -40725,7 +40725,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -40802,7 +40802,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -40879,7 +40879,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -40956,7 +40956,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -41110,7 +41110,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -41187,7 +41187,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -41264,7 +41264,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -41341,7 +41341,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -41418,7 +41418,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -41495,7 +41495,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -41572,7 +41572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -41649,7 +41649,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -41726,7 +41726,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -41803,7 +41803,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -41880,7 +41880,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -41957,7 +41957,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -42034,7 +42034,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -42111,7 +42111,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -42188,7 +42188,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -42265,7 +42265,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -42342,7 +42342,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -42419,7 +42419,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -42496,7 +42496,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -42573,7 +42573,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -42650,7 +42650,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -42727,7 +42727,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -42804,7 +42804,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -42881,7 +42881,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -42958,7 +42958,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -43035,7 +43035,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -43112,7 +43112,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -43122,7 +43122,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -43189,7 +43189,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Silvicultural treatment</t>
+          <t>Stock manipulation</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -43199,7 +43199,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Ungulates</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -43276,7 +43276,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -43353,7 +43353,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -43430,7 +43430,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Deer, sheep</t>
+          <t>Other ungulates</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -44123,7 +44123,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -44200,7 +44200,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -44277,7 +44277,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -44354,7 +44354,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -44431,7 +44431,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -44508,7 +44508,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -44585,7 +44585,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -44662,7 +44662,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -44739,7 +44739,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -44816,7 +44816,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -44893,7 +44893,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -44970,7 +44970,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -45047,7 +45047,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -45124,7 +45124,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -45201,7 +45201,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -45278,7 +45278,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -45355,7 +45355,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
@@ -45432,7 +45432,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -45509,7 +45509,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -45586,7 +45586,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -45663,7 +45663,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -45740,7 +45740,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -45817,7 +45817,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -45894,7 +45894,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -45971,7 +45971,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -46048,7 +46048,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -46125,7 +46125,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -46202,7 +46202,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -46279,7 +46279,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -46356,7 +46356,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -46433,7 +46433,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -46510,7 +46510,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -46587,7 +46587,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -46664,7 +46664,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -46741,7 +46741,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -46818,7 +46818,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -46895,7 +46895,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -46972,7 +46972,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -47049,7 +47049,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -47126,7 +47126,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Wallaby, pademelon, possum</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -47203,7 +47203,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Deer, voles, rabbits</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">

--- a/Data processing/Meta_lo_es.xlsx
+++ b/Data processing/Meta_lo_es.xlsx
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -17646,7 +17646,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -17806,7 +17806,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Prunus sp. and Quercus sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -36148,7 +36148,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -41410,7 +41410,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -41490,7 +41490,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -41570,7 +41570,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -41650,7 +41650,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -41730,7 +41730,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -41810,7 +41810,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -41890,7 +41890,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -41970,7 +41970,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -42050,7 +42050,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -42130,7 +42130,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -42210,7 +42210,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -42290,7 +42290,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -43469,7 +43469,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -43549,7 +43549,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -43629,7 +43629,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
